--- a/src/templates/Export Vorlage Kurzschlusskraft Leiterseile.xlsx
+++ b/src/templates/Export Vorlage Kurzschlusskraft Leiterseile.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1d3018db502cb77/Documents/GitHub/Kurzschlussfestigkeit/src/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3B7148-E890-47C8-B4FB-59285E31D06A}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{E219C60A-ED74-4BE6-B7AC-30D094904C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5C442FE-DE6B-4001-AD2F-021841571473}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Höhenkorrektur" sheetId="18" r:id="rId1"/>
+    <sheet name="Kurzschlussfestigkeit Leitersei" sheetId="18" r:id="rId1"/>
     <sheet name="Quellen &amp; Versionen" sheetId="19" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Versionskontrolle</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Relevante Dokumente (nicht abschliessend)</t>
   </si>
   <si>
-    <t>[1] Starkstromverordnung Anhang 2</t>
-  </si>
-  <si>
-    <t>[2] IEC 60071-2, Kapitel 4.2.2</t>
-  </si>
-  <si>
     <t>Allgemeine Angaben</t>
   </si>
   <si>
@@ -187,13 +181,31 @@
   </si>
   <si>
     <t>l_h_f Länge einer Klemme u. Formfaktor</t>
+  </si>
+  <si>
+    <t>Schlaufengeometrie bei Schlaufen in Spannfeldmitte</t>
+  </si>
+  <si>
+    <t>h Schlaufenhöhe</t>
+  </si>
+  <si>
+    <t>w Schlaufenbreite</t>
+  </si>
+  <si>
+    <t>l_v Seilbogenlänge der Schlaufe</t>
+  </si>
+  <si>
+    <t>[1] SN EN 60865-1:2012</t>
+  </si>
+  <si>
+    <t>[2] SN EN 60865-2:2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00;\-* #,##0.00;_-* &quot;-&quot;??;_-@_-"/>
@@ -207,6 +219,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;kN&quot;"/>
     <numFmt numFmtId="175" formatCode="#,##0\ &quot;N/m&quot;"/>
     <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;Hz&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -925,7 +938,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -959,9 +972,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -996,9 +1006,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="20" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="20" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,61 +1067,73 @@
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1199,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A078B13-6700-4179-A8AA-055BB431ED20}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1421,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -1421,28 +1436,28 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="43"/>
+      <c r="A3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="41"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="45"/>
+      <c r="A4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="43"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="34"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1450,9 +1465,9 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="35"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1460,9 +1475,9 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="35"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1470,9 +1485,9 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1480,207 +1495,219 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="29"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="41"/>
+      <c r="A11" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="31"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="38"/>
+        <v>46</v>
+      </c>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="41"/>
+      <c r="A16" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="36"/>
+        <v>23</v>
+      </c>
+      <c r="B17" s="34"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="33"/>
+        <v>25</v>
+      </c>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="41"/>
+      <c r="A20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="25"/>
+      <c r="A23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="34"/>
+        <v>33</v>
+      </c>
+      <c r="B28" s="32"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="41"/>
+      <c r="A30" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="39"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="B31" s="24"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="B34" s="24"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="B35" s="24"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="B36" s="24"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="B37" s="24"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="B38" s="24"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="25"/>
-    </row>
-    <row r="40" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="24"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -1816,10 +1843,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="B63:B73 B5:B40" name="Bereich2"/>
+    <protectedRange sqref="B63:B73 B5:B44" name="Bereich2"/>
     <protectedRange sqref="D63:D73" name="Bereich4"/>
   </protectedRanges>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A3:B3"/>
@@ -1850,7 +1878,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{1ABE7FAD-7B2B-4458-8FFC-BA5401C0A807}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29" xr:uid="{0CFB30F6-47B6-427A-AC3C-89C710C4684F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B29" xr:uid="{0CFB30F6-47B6-427A-AC3C-89C710C4684F}">
       <formula1>"100000, 150000, 1300000, 400000, 2000000, 600000, 3000000"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{DD76BAA2-9D59-4DB8-852A-41AA0F911BDB}">
@@ -1863,13 +1891,13 @@
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.1811023622047245" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"-,Fett"&amp;8
+    <oddHeader xml:space="preserve">&amp;C&amp;"-,Fett"&amp;8
 </oddHeader>
-    <oddFooter>&amp;L&amp;8Kurzschlussfestigkeit bei Leiterseilen
+    <oddFooter>&amp;L&amp;"Aptos,Standard"&amp;8Kurzschlussfestigkeit bei Leiterseilen
 Rev. 0.0&amp;C&amp;"Aptos,Standard" Stationsname
-Projektbeschreibung&amp;R&amp;8&amp;P/&amp;N</oddFooter>
+Projektbeschreibung
+&amp;F&amp;R&amp;"Aptos,Standard"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1878,7 +1906,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1900,10 +1928,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1918,212 +1946,221 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="53"/>
+      <c r="A4" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="45"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="63">
         <v>0</v>
       </c>
-      <c r="E4" s="14">
-        <v>45916</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="13">
+        <v>46067</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L3JGn++vkSXlWLsCCYWWINtqUqmHh3ss+Y3UnfzvYnEO110ZTLt4h5Wk1J0P8sdh9gATNb+6gDKHOpRAIsir+Q==" saltValue="aQCLb7ecvUo3cSUIR9a0KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -2140,26 +2177,17 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.55118110236220474" top="1.1811023622047245" bottom="0.9055118110236221" header="0.47244094488188981" footer="0.35433070866141736"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
-    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"-,Fett"&amp;8
+    <oddHeader xml:space="preserve">&amp;C&amp;"-,Fett"&amp;8
 </oddHeader>
-    <oddFooter>&amp;L&amp;8Berechnung von Erdergeometrien
+    <oddFooter>&amp;L&amp;"Aptos,Standard"&amp;8Berechnung von Erdergeometrien
 Rev. 0.0&amp;C&amp;"Aptos,Standard" Stationsname
-Projektbeschreibung&amp;R&amp;8&amp;P/&amp;N</oddFooter>
+Projektbeschreibung
+&amp;F&amp;R&amp;"Aptos,Standard"&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2173,6 +2201,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100974E8E3E9B04D04F8D6F693680045C37" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35b7d7985860683af24dbe6a2064ba68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="adda6a32-00d2-4666-b9cc-96528deec2dc" xmlns:ns4="b3a9547a-1fca-4aa3-b835-aaa4e5970e64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e0be61c5f0201ea221b2bd1cea9215ab" ns3:_="" ns4:_="">
     <xsd:import namespace="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
@@ -2411,14 +2447,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="adda6a32-00d2-4666-b9cc-96528deec2dc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ED21654-8749-4BDD-B9EA-E0D53BBAF9EC}">
   <ds:schemaRefs>
@@ -2428,6 +2456,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15EE6F0-8A02-43B6-B407-B9E53D6A3320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2444,21 +2489,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9A37C5-3D7A-4DD3-B23A-F45CB37B838D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="adda6a32-00d2-4666-b9cc-96528deec2dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b3a9547a-1fca-4aa3-b835-aaa4e5970e64"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>